--- a/Historical data/ZOMATO.xlsx
+++ b/Historical data/ZOMATO.xlsx
@@ -934,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:AL126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>OPEN-CLOSE</t>
+          <t>CLOSE-OPEN</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>CLOSE-CLOSE</t>
+          <t>TCLOSE-PCLOSE</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
@@ -1084,8 +1084,8 @@
       <c r="N2" s="2" t="n">
         <v>20228</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>-0.4500000000000171</v>
+      <c r="O2" t="n">
+        <v>0.4500000000000171</v>
       </c>
       <c r="P2" t="n">
         <v>1.100000000000023</v>
@@ -1099,6 +1099,9 @@
       <c r="S2" t="n">
         <v>3.150000000000006</v>
       </c>
+      <c r="Y2" s="4" t="n"/>
+      <c r="AD2" s="4" t="n"/>
+      <c r="AI2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1145,8 +1148,8 @@
       <c r="N3" s="2" t="n">
         <v>206013</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
+      <c r="O3" s="4" t="n">
+        <v>-1.5</v>
       </c>
       <c r="P3" t="n">
         <v>5.5</v>
@@ -1160,6 +1163,7 @@
       <c r="S3" t="n">
         <v>7.900000000000006</v>
       </c>
+      <c r="T3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1206,8 +1210,8 @@
       <c r="N4" s="2" t="n">
         <v>315093</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>-9</v>
+      <c r="O4" t="n">
+        <v>9</v>
       </c>
       <c r="P4" t="n">
         <v>12.40000000000001</v>
@@ -1221,6 +1225,9 @@
       <c r="S4" t="n">
         <v>13.40000000000001</v>
       </c>
+      <c r="Y4" s="4" t="n"/>
+      <c r="AD4" s="4" t="n"/>
+      <c r="AI4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1267,8 +1274,8 @@
       <c r="N5" s="2" t="n">
         <v>151610</v>
       </c>
-      <c r="O5" t="n">
-        <v>2.550000000000011</v>
+      <c r="O5" s="4" t="n">
+        <v>-2.550000000000011</v>
       </c>
       <c r="P5" t="n">
         <v>0.04999999999998295</v>
@@ -1282,6 +1289,11 @@
       <c r="S5" t="n">
         <v>6.599999999999994</v>
       </c>
+      <c r="T5" s="4" t="n"/>
+      <c r="W5" s="5" t="n"/>
+      <c r="AB5" s="5" t="n"/>
+      <c r="AG5" s="5" t="n"/>
+      <c r="AL5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1328,8 +1340,8 @@
       <c r="N6" s="2" t="n">
         <v>158125</v>
       </c>
-      <c r="O6" t="n">
-        <v>2.449999999999989</v>
+      <c r="O6" s="4" t="n">
+        <v>-2.449999999999989</v>
       </c>
       <c r="P6" t="n">
         <v>0.09999999999999432</v>
@@ -1343,6 +1355,11 @@
       <c r="S6" t="n">
         <v>5.849999999999994</v>
       </c>
+      <c r="T6" s="4" t="n"/>
+      <c r="W6" s="5" t="n"/>
+      <c r="AB6" s="5" t="n"/>
+      <c r="AG6" s="5" t="n"/>
+      <c r="AL6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1389,8 +1406,8 @@
       <c r="N7" s="2" t="n">
         <v>143985</v>
       </c>
-      <c r="O7" t="n">
-        <v>1</v>
+      <c r="O7" s="4" t="n">
+        <v>-1</v>
       </c>
       <c r="P7" t="n">
         <v>3.300000000000011</v>
@@ -1404,6 +1421,7 @@
       <c r="S7" t="n">
         <v>5.349999999999994</v>
       </c>
+      <c r="T7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1450,8 +1468,8 @@
       <c r="N8" s="2" t="n">
         <v>143686</v>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>-1.650000000000006</v>
+      <c r="O8" t="n">
+        <v>1.650000000000006</v>
       </c>
       <c r="P8" t="n">
         <v>2.400000000000006</v>
@@ -1465,6 +1483,9 @@
       <c r="S8" t="n">
         <v>4</v>
       </c>
+      <c r="Y8" s="4" t="n"/>
+      <c r="AD8" s="4" t="n"/>
+      <c r="AI8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1511,8 +1532,8 @@
       <c r="N9" s="2" t="n">
         <v>244872</v>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>-2.549999999999983</v>
+      <c r="O9" t="n">
+        <v>2.549999999999983</v>
       </c>
       <c r="P9" t="n">
         <v>3.449999999999989</v>
@@ -1526,6 +1547,9 @@
       <c r="S9" t="n">
         <v>6.400000000000006</v>
       </c>
+      <c r="Y9" s="4" t="n"/>
+      <c r="AD9" s="4" t="n"/>
+      <c r="AI9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1572,8 +1596,8 @@
       <c r="N10" s="2" t="n">
         <v>342176</v>
       </c>
-      <c r="O10" t="n">
-        <v>3.650000000000006</v>
+      <c r="O10" s="4" t="n">
+        <v>-3.650000000000006</v>
       </c>
       <c r="P10" t="n">
         <v>5.5</v>
@@ -1587,6 +1611,11 @@
       <c r="S10" t="n">
         <v>10.20000000000002</v>
       </c>
+      <c r="T10" s="4" t="n"/>
+      <c r="W10" s="5" t="n"/>
+      <c r="AB10" s="5" t="n"/>
+      <c r="AG10" s="5" t="n"/>
+      <c r="AL10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1633,8 +1662,8 @@
       <c r="N11" s="2" t="n">
         <v>289895</v>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>-1.350000000000023</v>
+      <c r="O11" t="n">
+        <v>1.350000000000023</v>
       </c>
       <c r="P11" t="n">
         <v>4.100000000000023</v>
@@ -1648,6 +1677,9 @@
       <c r="S11" t="n">
         <v>5.100000000000023</v>
       </c>
+      <c r="Y11" s="4" t="n"/>
+      <c r="AD11" s="4" t="n"/>
+      <c r="AI11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1694,8 +1726,8 @@
       <c r="N12" s="2" t="n">
         <v>173254</v>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>-0.05000000000001137</v>
+      <c r="O12" t="n">
+        <v>0.05000000000001137</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1709,6 +1741,9 @@
       <c r="S12" t="n">
         <v>4.849999999999994</v>
       </c>
+      <c r="Y12" s="4" t="n"/>
+      <c r="AD12" s="4" t="n"/>
+      <c r="AI12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1755,8 +1790,8 @@
       <c r="N13" s="2" t="n">
         <v>220755</v>
       </c>
-      <c r="O13" t="n">
-        <v>0.2000000000000171</v>
+      <c r="O13" s="4" t="n">
+        <v>-0.2000000000000171</v>
       </c>
       <c r="P13" t="n">
         <v>3.099999999999994</v>
@@ -1770,6 +1805,7 @@
       <c r="S13" t="n">
         <v>4.650000000000006</v>
       </c>
+      <c r="T13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1816,8 +1852,8 @@
       <c r="N14" s="2" t="n">
         <v>297454</v>
       </c>
-      <c r="O14" t="n">
-        <v>2.150000000000006</v>
+      <c r="O14" s="4" t="n">
+        <v>-2.150000000000006</v>
       </c>
       <c r="P14" t="n">
         <v>2.199999999999989</v>
@@ -1831,6 +1867,7 @@
       <c r="S14" t="n">
         <v>5.199999999999989</v>
       </c>
+      <c r="T14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1877,8 +1914,8 @@
       <c r="N15" s="2" t="n">
         <v>239211</v>
       </c>
-      <c r="O15" t="n">
-        <v>0.6999999999999886</v>
+      <c r="O15" s="4" t="n">
+        <v>-0.6999999999999886</v>
       </c>
       <c r="P15" t="n">
         <v>0.8000000000000114</v>
@@ -1892,6 +1929,11 @@
       <c r="S15" t="n">
         <v>3.650000000000006</v>
       </c>
+      <c r="T15" s="4" t="n"/>
+      <c r="W15" s="5" t="n"/>
+      <c r="AB15" s="5" t="n"/>
+      <c r="AG15" s="5" t="n"/>
+      <c r="AL15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1938,8 +1980,8 @@
       <c r="N16" s="2" t="n">
         <v>362074</v>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>-0.4000000000000057</v>
+      <c r="O16" t="n">
+        <v>0.4000000000000057</v>
       </c>
       <c r="P16" t="n">
         <v>3.550000000000011</v>
@@ -1953,6 +1995,9 @@
       <c r="S16" t="n">
         <v>8.900000000000006</v>
       </c>
+      <c r="Y16" s="4" t="n"/>
+      <c r="AD16" s="4" t="n"/>
+      <c r="AI16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1999,8 +2044,8 @@
       <c r="N17" s="2" t="n">
         <v>628198</v>
       </c>
-      <c r="O17" s="4" t="n">
-        <v>-2.800000000000011</v>
+      <c r="O17" t="n">
+        <v>2.800000000000011</v>
       </c>
       <c r="P17" t="n">
         <v>7.800000000000011</v>
@@ -2014,6 +2059,9 @@
       <c r="S17" t="n">
         <v>9.300000000000011</v>
       </c>
+      <c r="Y17" s="4" t="n"/>
+      <c r="AD17" s="4" t="n"/>
+      <c r="AI17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2060,8 +2108,8 @@
       <c r="N18" s="2" t="n">
         <v>641908</v>
       </c>
-      <c r="O18" s="4" t="n">
-        <v>-2.549999999999983</v>
+      <c r="O18" t="n">
+        <v>2.549999999999983</v>
       </c>
       <c r="P18" t="n">
         <v>4.5</v>
@@ -2075,6 +2123,9 @@
       <c r="S18" t="n">
         <v>9.150000000000006</v>
       </c>
+      <c r="Y18" s="4" t="n"/>
+      <c r="AD18" s="4" t="n"/>
+      <c r="AI18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2121,8 +2172,8 @@
       <c r="N19" s="2" t="n">
         <v>357170</v>
       </c>
-      <c r="O19" s="4" t="n">
-        <v>-1.599999999999994</v>
+      <c r="O19" t="n">
+        <v>1.599999999999994</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2136,6 +2187,9 @@
       <c r="S19" t="n">
         <v>8.5</v>
       </c>
+      <c r="Y19" s="4" t="n"/>
+      <c r="AD19" s="4" t="n"/>
+      <c r="AI19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2182,8 +2236,8 @@
       <c r="N20" s="2" t="n">
         <v>150273</v>
       </c>
-      <c r="O20" t="n">
-        <v>0.5999999999999943</v>
+      <c r="O20" s="4" t="n">
+        <v>-0.5999999999999943</v>
       </c>
       <c r="P20" t="n">
         <v>1.900000000000006</v>
@@ -2197,6 +2251,7 @@
       <c r="S20" t="n">
         <v>3.25</v>
       </c>
+      <c r="T20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2243,8 +2298,8 @@
       <c r="N21" s="2" t="n">
         <v>126005</v>
       </c>
-      <c r="O21" t="n">
-        <v>0.4500000000000171</v>
+      <c r="O21" s="4" t="n">
+        <v>-0.4500000000000171</v>
       </c>
       <c r="P21" t="n">
         <v>1.400000000000006</v>
@@ -2258,6 +2313,11 @@
       <c r="S21" t="n">
         <v>3.75</v>
       </c>
+      <c r="T21" s="4" t="n"/>
+      <c r="W21" s="5" t="n"/>
+      <c r="AB21" s="5" t="n"/>
+      <c r="AG21" s="5" t="n"/>
+      <c r="AL21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2304,8 +2364,8 @@
       <c r="N22" s="2" t="n">
         <v>164200</v>
       </c>
-      <c r="O22" t="n">
-        <v>4.75</v>
+      <c r="O22" s="4" t="n">
+        <v>-4.75</v>
       </c>
       <c r="P22" t="n">
         <v>0.4000000000000057</v>
@@ -2319,6 +2379,11 @@
       <c r="S22" t="n">
         <v>7.150000000000006</v>
       </c>
+      <c r="T22" s="4" t="n"/>
+      <c r="W22" s="5" t="n"/>
+      <c r="AB22" s="5" t="n"/>
+      <c r="AG22" s="5" t="n"/>
+      <c r="AL22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2365,8 +2430,8 @@
       <c r="N23" s="2" t="n">
         <v>188193</v>
       </c>
-      <c r="O23" s="4" t="n">
-        <v>-2</v>
+      <c r="O23" t="n">
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>3.199999999999989</v>
@@ -2380,6 +2445,9 @@
       <c r="S23" t="n">
         <v>3.550000000000011</v>
       </c>
+      <c r="Y23" s="4" t="n"/>
+      <c r="AD23" s="4" t="n"/>
+      <c r="AI23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2426,8 +2494,8 @@
       <c r="N24" s="2" t="n">
         <v>183379</v>
       </c>
-      <c r="O24" t="n">
-        <v>0.4499999999999886</v>
+      <c r="O24" s="4" t="n">
+        <v>-0.4499999999999886</v>
       </c>
       <c r="P24" t="n">
         <v>2.5</v>
@@ -2441,6 +2509,7 @@
       <c r="S24" t="n">
         <v>4.949999999999989</v>
       </c>
+      <c r="T24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2487,8 +2556,8 @@
       <c r="N25" s="2" t="n">
         <v>226655</v>
       </c>
-      <c r="O25" t="n">
-        <v>0.4499999999999886</v>
+      <c r="O25" s="4" t="n">
+        <v>-0.4499999999999886</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -2502,6 +2571,7 @@
       <c r="S25" t="n">
         <v>4</v>
       </c>
+      <c r="T25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2548,8 +2618,8 @@
       <c r="N26" s="2" t="n">
         <v>207698</v>
       </c>
-      <c r="O26" s="4" t="n">
-        <v>-1.349999999999994</v>
+      <c r="O26" t="n">
+        <v>1.349999999999994</v>
       </c>
       <c r="P26" t="n">
         <v>2.950000000000017</v>
@@ -2563,6 +2633,9 @@
       <c r="S26" t="n">
         <v>4.150000000000006</v>
       </c>
+      <c r="Y26" s="4" t="n"/>
+      <c r="AD26" s="4" t="n"/>
+      <c r="AI26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2609,8 +2682,8 @@
       <c r="N27" s="2" t="n">
         <v>229672</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.349999999999994</v>
+      <c r="O27" s="4" t="n">
+        <v>-1.349999999999994</v>
       </c>
       <c r="P27" t="n">
         <v>0.7999999999999829</v>
@@ -2624,6 +2697,11 @@
       <c r="S27" t="n">
         <v>5.349999999999994</v>
       </c>
+      <c r="T27" s="4" t="n"/>
+      <c r="W27" s="5" t="n"/>
+      <c r="AB27" s="5" t="n"/>
+      <c r="AG27" s="5" t="n"/>
+      <c r="AL27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2670,8 +2748,8 @@
       <c r="N28" s="2" t="n">
         <v>178295</v>
       </c>
-      <c r="O28" s="4" t="n">
-        <v>-0.25</v>
+      <c r="O28" t="n">
+        <v>0.25</v>
       </c>
       <c r="P28" t="n">
         <v>2.299999999999983</v>
@@ -2685,6 +2763,13 @@
       <c r="S28" t="n">
         <v>5.399999999999977</v>
       </c>
+      <c r="W28" s="5" t="n"/>
+      <c r="Y28" s="4" t="n"/>
+      <c r="AB28" s="5" t="n"/>
+      <c r="AD28" s="4" t="n"/>
+      <c r="AG28" s="5" t="n"/>
+      <c r="AI28" s="4" t="n"/>
+      <c r="AL28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2731,8 +2816,8 @@
       <c r="N29" s="2" t="n">
         <v>160459</v>
       </c>
-      <c r="O29" s="4" t="n">
-        <v>-4.75</v>
+      <c r="O29" t="n">
+        <v>4.75</v>
       </c>
       <c r="P29" t="n">
         <v>5.450000000000017</v>
@@ -2746,6 +2831,9 @@
       <c r="S29" t="n">
         <v>7.099999999999994</v>
       </c>
+      <c r="Y29" s="4" t="n"/>
+      <c r="AD29" s="4" t="n"/>
+      <c r="AI29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2792,8 +2880,8 @@
       <c r="N30" s="2" t="n">
         <v>196545</v>
       </c>
-      <c r="O30" t="n">
-        <v>6.200000000000017</v>
+      <c r="O30" s="4" t="n">
+        <v>-6.200000000000017</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -2807,6 +2895,11 @@
       <c r="S30" t="n">
         <v>10.30000000000001</v>
       </c>
+      <c r="T30" s="4" t="n"/>
+      <c r="W30" s="5" t="n"/>
+      <c r="AB30" s="5" t="n"/>
+      <c r="AG30" s="5" t="n"/>
+      <c r="AL30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2853,8 +2946,8 @@
       <c r="N31" s="2" t="n">
         <v>98528</v>
       </c>
-      <c r="O31" t="n">
-        <v>2.300000000000011</v>
+      <c r="O31" s="4" t="n">
+        <v>-2.300000000000011</v>
       </c>
       <c r="P31" t="n">
         <v>1.549999999999983</v>
@@ -2868,6 +2961,11 @@
       <c r="S31" t="n">
         <v>4.949999999999989</v>
       </c>
+      <c r="T31" s="4" t="n"/>
+      <c r="W31" s="5" t="n"/>
+      <c r="AB31" s="5" t="n"/>
+      <c r="AG31" s="5" t="n"/>
+      <c r="AL31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2914,8 +3012,8 @@
       <c r="N32" s="2" t="n">
         <v>205453</v>
       </c>
-      <c r="O32" s="4" t="n">
-        <v>-4.550000000000011</v>
+      <c r="O32" t="n">
+        <v>4.550000000000011</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -2929,6 +3027,9 @@
       <c r="S32" t="n">
         <v>7.5</v>
       </c>
+      <c r="Y32" s="4" t="n"/>
+      <c r="AD32" s="4" t="n"/>
+      <c r="AI32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2975,8 +3076,8 @@
       <c r="N33" s="2" t="n">
         <v>320740</v>
       </c>
-      <c r="O33" s="4" t="n">
-        <v>-1.399999999999977</v>
+      <c r="O33" t="n">
+        <v>1.399999999999977</v>
       </c>
       <c r="P33" t="n">
         <v>1.75</v>
@@ -2990,6 +3091,9 @@
       <c r="S33" t="n">
         <v>8.200000000000017</v>
       </c>
+      <c r="Y33" s="4" t="n"/>
+      <c r="AD33" s="4" t="n"/>
+      <c r="AI33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3036,8 +3140,8 @@
       <c r="N34" s="2" t="n">
         <v>272361</v>
       </c>
-      <c r="O34" t="n">
-        <v>5</v>
+      <c r="O34" s="4" t="n">
+        <v>-5</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3051,6 +3155,11 @@
       <c r="S34" t="n">
         <v>5.650000000000006</v>
       </c>
+      <c r="T34" s="4" t="n"/>
+      <c r="W34" s="5" t="n"/>
+      <c r="AB34" s="5" t="n"/>
+      <c r="AG34" s="5" t="n"/>
+      <c r="AL34" s="5" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3097,8 +3206,8 @@
       <c r="N35" s="2" t="n">
         <v>162111</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.449999999999989</v>
+      <c r="O35" s="4" t="n">
+        <v>-1.449999999999989</v>
       </c>
       <c r="P35" t="n">
         <v>0.3000000000000114</v>
@@ -3112,6 +3221,7 @@
       <c r="S35" t="n">
         <v>4.300000000000011</v>
       </c>
+      <c r="T35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3158,8 +3268,8 @@
       <c r="N36" s="2" t="n">
         <v>242915</v>
       </c>
-      <c r="O36" t="n">
-        <v>6.150000000000006</v>
+      <c r="O36" s="4" t="n">
+        <v>-6.150000000000006</v>
       </c>
       <c r="P36" t="n">
         <v>0.2999999999999829</v>
@@ -3173,6 +3283,11 @@
       <c r="S36" t="n">
         <v>7</v>
       </c>
+      <c r="T36" s="4" t="n"/>
+      <c r="W36" s="5" t="n"/>
+      <c r="AB36" s="5" t="n"/>
+      <c r="AG36" s="5" t="n"/>
+      <c r="AL36" s="5" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3219,8 +3334,8 @@
       <c r="N37" s="2" t="n">
         <v>194351</v>
       </c>
-      <c r="O37" t="n">
-        <v>0.4499999999999886</v>
+      <c r="O37" s="4" t="n">
+        <v>-0.4499999999999886</v>
       </c>
       <c r="P37" t="n">
         <v>1.5</v>
@@ -3234,6 +3349,7 @@
       <c r="S37" t="n">
         <v>4.699999999999989</v>
       </c>
+      <c r="T37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3280,8 +3396,8 @@
       <c r="N38" s="2" t="n">
         <v>127478</v>
       </c>
-      <c r="O38" s="4" t="n">
-        <v>-3.049999999999983</v>
+      <c r="O38" t="n">
+        <v>3.049999999999983</v>
       </c>
       <c r="P38" t="n">
         <v>3.699999999999989</v>
@@ -3295,6 +3411,9 @@
       <c r="S38" t="n">
         <v>3.949999999999989</v>
       </c>
+      <c r="Y38" s="4" t="n"/>
+      <c r="AD38" s="4" t="n"/>
+      <c r="AI38" s="4" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3341,8 +3460,8 @@
       <c r="N39" s="2" t="n">
         <v>87590</v>
       </c>
-      <c r="O39" s="4" t="n">
-        <v>-0.4000000000000057</v>
+      <c r="O39" t="n">
+        <v>0.4000000000000057</v>
       </c>
       <c r="P39" t="n">
         <v>1.900000000000006</v>
@@ -3356,6 +3475,9 @@
       <c r="S39" t="n">
         <v>3.900000000000006</v>
       </c>
+      <c r="Y39" s="4" t="n"/>
+      <c r="AD39" s="4" t="n"/>
+      <c r="AI39" s="4" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3402,8 +3524,8 @@
       <c r="N40" s="2" t="n">
         <v>130223</v>
       </c>
-      <c r="O40" s="4" t="n">
-        <v>-1.100000000000023</v>
+      <c r="O40" t="n">
+        <v>1.100000000000023</v>
       </c>
       <c r="P40" t="n">
         <v>1.800000000000011</v>
@@ -3417,6 +3539,9 @@
       <c r="S40" t="n">
         <v>2.400000000000006</v>
       </c>
+      <c r="Y40" s="4" t="n"/>
+      <c r="AD40" s="4" t="n"/>
+      <c r="AI40" s="4" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3463,8 +3588,8 @@
       <c r="N41" s="2" t="n">
         <v>139247</v>
       </c>
-      <c r="O41" t="n">
-        <v>0.8000000000000114</v>
+      <c r="O41" s="4" t="n">
+        <v>-0.8000000000000114</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3478,6 +3603,11 @@
       <c r="S41" t="n">
         <v>3.650000000000006</v>
       </c>
+      <c r="T41" s="4" t="n"/>
+      <c r="W41" s="5" t="n"/>
+      <c r="AB41" s="5" t="n"/>
+      <c r="AG41" s="5" t="n"/>
+      <c r="AL41" s="5" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3524,8 +3654,8 @@
       <c r="N42" s="2" t="n">
         <v>197797</v>
       </c>
-      <c r="O42" s="4" t="n">
-        <v>-2.400000000000006</v>
+      <c r="O42" t="n">
+        <v>2.400000000000006</v>
       </c>
       <c r="P42" t="n">
         <v>3.449999999999989</v>
@@ -3539,6 +3669,9 @@
       <c r="S42" t="n">
         <v>5.400000000000006</v>
       </c>
+      <c r="Y42" s="4" t="n"/>
+      <c r="AD42" s="4" t="n"/>
+      <c r="AI42" s="4" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3585,8 +3718,8 @@
       <c r="N43" s="2" t="n">
         <v>138982</v>
       </c>
-      <c r="O43" s="4" t="n">
-        <v>-1.349999999999994</v>
+      <c r="O43" t="n">
+        <v>1.349999999999994</v>
       </c>
       <c r="P43" t="n">
         <v>2.5</v>
@@ -3600,6 +3733,9 @@
       <c r="S43" t="n">
         <v>4.450000000000003</v>
       </c>
+      <c r="Y43" s="4" t="n"/>
+      <c r="AD43" s="4" t="n"/>
+      <c r="AI43" s="4" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3646,8 +3782,8 @@
       <c r="N44" s="2" t="n">
         <v>115403</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.250000000000014</v>
+      <c r="O44" s="4" t="n">
+        <v>-1.250000000000014</v>
       </c>
       <c r="P44" t="n">
         <v>1.449999999999989</v>
@@ -3661,6 +3797,11 @@
       <c r="S44" t="n">
         <v>3.150000000000006</v>
       </c>
+      <c r="T44" s="4" t="n"/>
+      <c r="W44" s="5" t="n"/>
+      <c r="AB44" s="5" t="n"/>
+      <c r="AG44" s="5" t="n"/>
+      <c r="AL44" s="5" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3707,8 +3848,8 @@
       <c r="N45" s="2" t="n">
         <v>189554</v>
       </c>
-      <c r="O45" s="4" t="n">
-        <v>-1.699999999999989</v>
+      <c r="O45" t="n">
+        <v>1.699999999999989</v>
       </c>
       <c r="P45" t="n">
         <v>2.449999999999989</v>
@@ -3722,6 +3863,9 @@
       <c r="S45" t="n">
         <v>3.949999999999989</v>
       </c>
+      <c r="Y45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+      <c r="AI45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3768,8 +3912,8 @@
       <c r="N46" s="2" t="n">
         <v>108031</v>
       </c>
-      <c r="O46" s="4" t="n">
-        <v>-0.04999999999999716</v>
+      <c r="O46" t="n">
+        <v>0.04999999999999716</v>
       </c>
       <c r="P46" t="n">
         <v>1.149999999999991</v>
@@ -3783,6 +3927,9 @@
       <c r="S46" t="n">
         <v>2.75</v>
       </c>
+      <c r="Y46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
+      <c r="AI46" s="4" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3829,8 +3976,8 @@
       <c r="N47" s="2" t="n">
         <v>133273</v>
       </c>
-      <c r="O47" t="n">
-        <v>0.2999999999999972</v>
+      <c r="O47" s="4" t="n">
+        <v>-0.2999999999999972</v>
       </c>
       <c r="P47" t="n">
         <v>1.549999999999997</v>
@@ -3844,6 +3991,7 @@
       <c r="S47" t="n">
         <v>2.299999999999997</v>
       </c>
+      <c r="T47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3890,8 +4038,8 @@
       <c r="N48" s="2" t="n">
         <v>210148</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.700000000000003</v>
+      <c r="O48" s="4" t="n">
+        <v>-1.700000000000003</v>
       </c>
       <c r="P48" t="n">
         <v>0.5999999999999943</v>
@@ -3905,6 +4053,11 @@
       <c r="S48" t="n">
         <v>4.900000000000006</v>
       </c>
+      <c r="T48" s="4" t="n"/>
+      <c r="W48" s="5" t="n"/>
+      <c r="AB48" s="5" t="n"/>
+      <c r="AG48" s="5" t="n"/>
+      <c r="AL48" s="5" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3951,8 +4104,8 @@
       <c r="N49" s="2" t="n">
         <v>77925</v>
       </c>
-      <c r="O49" s="4" t="n">
-        <v>-1.349999999999994</v>
+      <c r="O49" t="n">
+        <v>1.349999999999994</v>
       </c>
       <c r="P49" t="n">
         <v>1.899999999999991</v>
@@ -3966,6 +4119,9 @@
       <c r="S49" t="n">
         <v>2.049999999999997</v>
       </c>
+      <c r="Y49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
+      <c r="AI49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4012,8 +4168,8 @@
       <c r="N50" s="2" t="n">
         <v>111094</v>
       </c>
-      <c r="O50" t="n">
-        <v>3.5</v>
+      <c r="O50" s="4" t="n">
+        <v>-3.5</v>
       </c>
       <c r="P50" t="n">
         <v>0.1999999999999886</v>
@@ -4027,6 +4183,11 @@
       <c r="S50" t="n">
         <v>4.399999999999991</v>
       </c>
+      <c r="T50" s="4" t="n"/>
+      <c r="W50" s="5" t="n"/>
+      <c r="AB50" s="5" t="n"/>
+      <c r="AG50" s="5" t="n"/>
+      <c r="AL50" s="5" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4073,8 +4234,8 @@
       <c r="N51" s="2" t="n">
         <v>187775</v>
       </c>
-      <c r="O51" t="n">
-        <v>2.050000000000011</v>
+      <c r="O51" s="4" t="n">
+        <v>-2.050000000000011</v>
       </c>
       <c r="P51" t="n">
         <v>0.4499999999999886</v>
@@ -4088,6 +4249,7 @@
       <c r="S51" t="n">
         <v>5.700000000000003</v>
       </c>
+      <c r="T51" s="4" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4134,8 +4296,8 @@
       <c r="N52" s="2" t="n">
         <v>198566</v>
       </c>
-      <c r="O52" s="4" t="n">
-        <v>-5.199999999999989</v>
+      <c r="O52" t="n">
+        <v>5.199999999999989</v>
       </c>
       <c r="P52" t="n">
         <v>6.549999999999983</v>
@@ -4149,6 +4311,9 @@
       <c r="S52" t="n">
         <v>8.499999999999986</v>
       </c>
+      <c r="Y52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+      <c r="AI52" s="4" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4195,8 +4360,8 @@
       <c r="N53" s="2" t="n">
         <v>178995</v>
       </c>
-      <c r="O53" t="n">
-        <v>5.599999999999994</v>
+      <c r="O53" s="4" t="n">
+        <v>-5.599999999999994</v>
       </c>
       <c r="P53" t="n">
         <v>0.6500000000000057</v>
@@ -4210,6 +4375,11 @@
       <c r="S53" t="n">
         <v>7.849999999999994</v>
       </c>
+      <c r="T53" s="4" t="n"/>
+      <c r="W53" s="5" t="n"/>
+      <c r="AB53" s="5" t="n"/>
+      <c r="AG53" s="5" t="n"/>
+      <c r="AL53" s="5" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4256,8 +4426,8 @@
       <c r="N54" s="2" t="n">
         <v>188926</v>
       </c>
-      <c r="O54" s="4" t="n">
-        <v>-1.25</v>
+      <c r="O54" t="n">
+        <v>1.25</v>
       </c>
       <c r="P54" t="n">
         <v>2.75</v>
@@ -4271,6 +4441,9 @@
       <c r="S54" t="n">
         <v>4.349999999999994</v>
       </c>
+      <c r="Y54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
+      <c r="AI54" s="4" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4317,8 +4490,8 @@
       <c r="N55" s="2" t="n">
         <v>294353</v>
       </c>
-      <c r="O55" s="4" t="n">
-        <v>-5.150000000000006</v>
+      <c r="O55" t="n">
+        <v>5.150000000000006</v>
       </c>
       <c r="P55" t="n">
         <v>5.799999999999983</v>
@@ -4332,6 +4505,9 @@
       <c r="S55" t="n">
         <v>7.649999999999991</v>
       </c>
+      <c r="Y55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+      <c r="AI55" s="4" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4378,8 +4554,8 @@
       <c r="N56" s="2" t="n">
         <v>242310</v>
       </c>
-      <c r="O56" t="n">
-        <v>0.9000000000000057</v>
+      <c r="O56" s="4" t="n">
+        <v>-0.9000000000000057</v>
       </c>
       <c r="P56" t="n">
         <v>0.5</v>
@@ -4393,6 +4569,11 @@
       <c r="S56" t="n">
         <v>2.599999999999994</v>
       </c>
+      <c r="T56" s="4" t="n"/>
+      <c r="W56" s="5" t="n"/>
+      <c r="AB56" s="5" t="n"/>
+      <c r="AG56" s="5" t="n"/>
+      <c r="AL56" s="5" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4439,8 +4620,8 @@
       <c r="N57" s="2" t="n">
         <v>226862</v>
       </c>
-      <c r="O57" s="4" t="n">
-        <v>-3.150000000000006</v>
+      <c r="O57" t="n">
+        <v>3.150000000000006</v>
       </c>
       <c r="P57" t="n">
         <v>3.950000000000003</v>
@@ -4454,6 +4635,9 @@
       <c r="S57" t="n">
         <v>4.450000000000003</v>
       </c>
+      <c r="Y57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+      <c r="AI57" s="4" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4500,8 +4684,8 @@
       <c r="N58" s="2" t="n">
         <v>115252</v>
       </c>
-      <c r="O58" s="4" t="n">
-        <v>-3.099999999999994</v>
+      <c r="O58" t="n">
+        <v>3.099999999999994</v>
       </c>
       <c r="P58" t="n">
         <v>3.599999999999994</v>
@@ -4515,6 +4699,9 @@
       <c r="S58" t="n">
         <v>4.349999999999994</v>
       </c>
+      <c r="Y58" s="4" t="n"/>
+      <c r="AD58" s="4" t="n"/>
+      <c r="AI58" s="4" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4561,8 +4748,8 @@
       <c r="N59" s="2" t="n">
         <v>139070</v>
       </c>
-      <c r="O59" t="n">
-        <v>2.25</v>
+      <c r="O59" s="4" t="n">
+        <v>-2.25</v>
       </c>
       <c r="P59" t="n">
         <v>0.2999999999999972</v>
@@ -4576,6 +4763,11 @@
       <c r="S59" t="n">
         <v>5.149999999999991</v>
       </c>
+      <c r="T59" s="4" t="n"/>
+      <c r="W59" s="5" t="n"/>
+      <c r="AB59" s="5" t="n"/>
+      <c r="AG59" s="5" t="n"/>
+      <c r="AL59" s="5" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4622,8 +4814,8 @@
       <c r="N60" s="2" t="n">
         <v>115976</v>
       </c>
-      <c r="O60" t="n">
-        <v>1.5</v>
+      <c r="O60" s="4" t="n">
+        <v>-1.5</v>
       </c>
       <c r="P60" t="n">
         <v>0.5499999999999972</v>
@@ -4637,6 +4829,11 @@
       <c r="S60" t="n">
         <v>2.950000000000003</v>
       </c>
+      <c r="T60" s="4" t="n"/>
+      <c r="W60" s="5" t="n"/>
+      <c r="AB60" s="5" t="n"/>
+      <c r="AG60" s="5" t="n"/>
+      <c r="AL60" s="5" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4683,8 +4880,8 @@
       <c r="N61" s="2" t="n">
         <v>132835</v>
       </c>
-      <c r="O61" t="n">
-        <v>3.049999999999997</v>
+      <c r="O61" s="4" t="n">
+        <v>-3.049999999999997</v>
       </c>
       <c r="P61" t="n">
         <v>0.9000000000000057</v>
@@ -4698,6 +4895,11 @@
       <c r="S61" t="n">
         <v>4.600000000000009</v>
       </c>
+      <c r="T61" s="4" t="n"/>
+      <c r="W61" s="5" t="n"/>
+      <c r="AB61" s="5" t="n"/>
+      <c r="AG61" s="5" t="n"/>
+      <c r="AL61" s="5" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4744,8 +4946,8 @@
       <c r="N62" s="2" t="n">
         <v>144827</v>
       </c>
-      <c r="O62" s="4" t="n">
-        <v>-2.100000000000009</v>
+      <c r="O62" t="n">
+        <v>2.100000000000009</v>
       </c>
       <c r="P62" t="n">
         <v>2.600000000000009</v>
@@ -4759,6 +4961,9 @@
       <c r="S62" t="n">
         <v>3.799999999999997</v>
       </c>
+      <c r="Y62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+      <c r="AI62" s="4" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4805,8 +5010,8 @@
       <c r="N63" s="2" t="n">
         <v>105148</v>
       </c>
-      <c r="O63" s="4" t="n">
-        <v>-1.75</v>
+      <c r="O63" t="n">
+        <v>1.75</v>
       </c>
       <c r="P63" t="n">
         <v>2.549999999999997</v>
@@ -4820,6 +5025,9 @@
       <c r="S63" t="n">
         <v>3.100000000000009</v>
       </c>
+      <c r="Y63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+      <c r="AI63" s="4" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4866,8 +5074,8 @@
       <c r="N64" s="2" t="n">
         <v>143348</v>
       </c>
-      <c r="O64" t="n">
-        <v>1.150000000000006</v>
+      <c r="O64" s="4" t="n">
+        <v>-1.150000000000006</v>
       </c>
       <c r="P64" t="n">
         <v>0.3499999999999943</v>
@@ -4881,6 +5089,11 @@
       <c r="S64" t="n">
         <v>2</v>
       </c>
+      <c r="T64" s="4" t="n"/>
+      <c r="W64" s="5" t="n"/>
+      <c r="AB64" s="5" t="n"/>
+      <c r="AG64" s="5" t="n"/>
+      <c r="AL64" s="5" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4927,8 +5140,8 @@
       <c r="N65" s="2" t="n">
         <v>159886</v>
       </c>
-      <c r="O65" t="n">
-        <v>1.349999999999994</v>
+      <c r="O65" s="4" t="n">
+        <v>-1.349999999999994</v>
       </c>
       <c r="P65" t="n">
         <v>0.25</v>
@@ -4942,6 +5155,7 @@
       <c r="S65" t="n">
         <v>2.75</v>
       </c>
+      <c r="T65" s="4" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4988,8 +5202,8 @@
       <c r="N66" s="2" t="n">
         <v>156900</v>
       </c>
-      <c r="O66" t="n">
-        <v>1.700000000000003</v>
+      <c r="O66" s="4" t="n">
+        <v>-1.700000000000003</v>
       </c>
       <c r="P66" t="n">
         <v>0.3499999999999943</v>
@@ -5003,6 +5217,11 @@
       <c r="S66" t="n">
         <v>3.25</v>
       </c>
+      <c r="T66" s="4" t="n"/>
+      <c r="W66" s="5" t="n"/>
+      <c r="AB66" s="5" t="n"/>
+      <c r="AG66" s="5" t="n"/>
+      <c r="AL66" s="5" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5049,8 +5268,8 @@
       <c r="N67" s="2" t="n">
         <v>324255</v>
       </c>
-      <c r="O67" t="n">
-        <v>0.25</v>
+      <c r="O67" s="4" t="n">
+        <v>-0.25</v>
       </c>
       <c r="P67" t="n">
         <v>1.900000000000006</v>
@@ -5064,6 +5283,7 @@
       <c r="S67" t="n">
         <v>4.549999999999997</v>
       </c>
+      <c r="T67" s="4" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5110,8 +5330,8 @@
       <c r="N68" s="2" t="n">
         <v>320798</v>
       </c>
-      <c r="O68" t="n">
-        <v>0.4000000000000057</v>
+      <c r="O68" s="4" t="n">
+        <v>-0.4000000000000057</v>
       </c>
       <c r="P68" t="n">
         <v>2.200000000000003</v>
@@ -5125,6 +5345,7 @@
       <c r="S68" t="n">
         <v>5.200000000000003</v>
       </c>
+      <c r="T68" s="4" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5171,8 +5392,8 @@
       <c r="N69" s="2" t="n">
         <v>169089</v>
       </c>
-      <c r="O69" t="n">
-        <v>1.100000000000009</v>
+      <c r="O69" s="4" t="n">
+        <v>-1.100000000000009</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -5186,6 +5407,7 @@
       <c r="S69" t="n">
         <v>3.400000000000006</v>
       </c>
+      <c r="T69" s="4" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5232,8 +5454,8 @@
       <c r="N70" s="2" t="n">
         <v>154932</v>
       </c>
-      <c r="O70" t="n">
-        <v>0.9000000000000057</v>
+      <c r="O70" s="4" t="n">
+        <v>-0.9000000000000057</v>
       </c>
       <c r="P70" t="n">
         <v>1.849999999999994</v>
@@ -5247,6 +5469,7 @@
       <c r="S70" t="n">
         <v>3.099999999999994</v>
       </c>
+      <c r="T70" s="4" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5293,8 +5516,8 @@
       <c r="N71" s="2" t="n">
         <v>157065</v>
       </c>
-      <c r="O71" t="n">
-        <v>0.6499999999999915</v>
+      <c r="O71" s="4" t="n">
+        <v>-0.6499999999999915</v>
       </c>
       <c r="P71" t="n">
         <v>2.150000000000006</v>
@@ -5308,6 +5531,11 @@
       <c r="S71" t="n">
         <v>3.25</v>
       </c>
+      <c r="T71" s="4" t="n"/>
+      <c r="W71" s="5" t="n"/>
+      <c r="AB71" s="5" t="n"/>
+      <c r="AG71" s="5" t="n"/>
+      <c r="AL71" s="5" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5354,8 +5582,8 @@
       <c r="N72" s="2" t="n">
         <v>131769</v>
       </c>
-      <c r="O72" t="n">
-        <v>0.7000000000000028</v>
+      <c r="O72" s="4" t="n">
+        <v>-0.7000000000000028</v>
       </c>
       <c r="P72" t="n">
         <v>1.799999999999997</v>
@@ -5369,6 +5597,11 @@
       <c r="S72" t="n">
         <v>3.450000000000003</v>
       </c>
+      <c r="T72" s="4" t="n"/>
+      <c r="W72" s="5" t="n"/>
+      <c r="AB72" s="5" t="n"/>
+      <c r="AG72" s="5" t="n"/>
+      <c r="AL72" s="5" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5415,8 +5648,8 @@
       <c r="N73" s="2" t="n">
         <v>146971</v>
       </c>
-      <c r="O73" t="n">
-        <v>2.049999999999997</v>
+      <c r="O73" s="4" t="n">
+        <v>-2.049999999999997</v>
       </c>
       <c r="P73" t="n">
         <v>0.4500000000000028</v>
@@ -5430,6 +5663,11 @@
       <c r="S73" t="n">
         <v>2.950000000000003</v>
       </c>
+      <c r="T73" s="4" t="n"/>
+      <c r="W73" s="5" t="n"/>
+      <c r="AB73" s="5" t="n"/>
+      <c r="AG73" s="5" t="n"/>
+      <c r="AL73" s="5" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5476,8 +5714,8 @@
       <c r="N74" s="2" t="n">
         <v>166896</v>
       </c>
-      <c r="O74" t="n">
-        <v>4.699999999999989</v>
+      <c r="O74" s="4" t="n">
+        <v>-4.699999999999989</v>
       </c>
       <c r="P74" t="n">
         <v>0.5500000000000114</v>
@@ -5491,6 +5729,11 @@
       <c r="S74" t="n">
         <v>6.050000000000011</v>
       </c>
+      <c r="T74" s="4" t="n"/>
+      <c r="W74" s="5" t="n"/>
+      <c r="AB74" s="5" t="n"/>
+      <c r="AG74" s="5" t="n"/>
+      <c r="AL74" s="5" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5537,8 +5780,8 @@
       <c r="N75" s="2" t="n">
         <v>136049</v>
       </c>
-      <c r="O75" s="4" t="n">
-        <v>-0.2000000000000028</v>
+      <c r="O75" t="n">
+        <v>0.2000000000000028</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -5552,6 +5795,9 @@
       <c r="S75" t="n">
         <v>3.5</v>
       </c>
+      <c r="Y75" s="4" t="n"/>
+      <c r="AD75" s="4" t="n"/>
+      <c r="AI75" s="4" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5598,8 +5844,8 @@
       <c r="N76" s="2" t="n">
         <v>109544</v>
       </c>
-      <c r="O76" s="4" t="n">
-        <v>-0.9499999999999886</v>
+      <c r="O76" t="n">
+        <v>0.9499999999999886</v>
       </c>
       <c r="P76" t="n">
         <v>1.649999999999991</v>
@@ -5613,6 +5859,9 @@
       <c r="S76" t="n">
         <v>1.849999999999994</v>
       </c>
+      <c r="Y76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+      <c r="AI76" s="4" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5659,8 +5908,8 @@
       <c r="N77" s="2" t="n">
         <v>216876</v>
       </c>
-      <c r="O77" t="n">
-        <v>3.049999999999997</v>
+      <c r="O77" s="4" t="n">
+        <v>-3.049999999999997</v>
       </c>
       <c r="P77" t="n">
         <v>1.900000000000006</v>
@@ -5674,6 +5923,11 @@
       <c r="S77" t="n">
         <v>5.450000000000003</v>
       </c>
+      <c r="T77" s="4" t="n"/>
+      <c r="W77" s="5" t="n"/>
+      <c r="AB77" s="5" t="n"/>
+      <c r="AG77" s="5" t="n"/>
+      <c r="AL77" s="5" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5720,8 +5974,8 @@
       <c r="N78" s="2" t="n">
         <v>153866</v>
       </c>
-      <c r="O78" t="n">
-        <v>0.4500000000000028</v>
+      <c r="O78" s="4" t="n">
+        <v>-0.4500000000000028</v>
       </c>
       <c r="P78" t="n">
         <v>0.4499999999999886</v>
@@ -5735,6 +5989,11 @@
       <c r="S78" t="n">
         <v>1.599999999999994</v>
       </c>
+      <c r="T78" s="4" t="n"/>
+      <c r="W78" s="5" t="n"/>
+      <c r="AB78" s="5" t="n"/>
+      <c r="AG78" s="5" t="n"/>
+      <c r="AL78" s="5" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5842,8 +6101,8 @@
       <c r="N80" s="2" t="n">
         <v>123196</v>
       </c>
-      <c r="O80" t="n">
-        <v>0.7000000000000028</v>
+      <c r="O80" s="4" t="n">
+        <v>-0.7000000000000028</v>
       </c>
       <c r="P80" t="n">
         <v>1.299999999999997</v>
@@ -5857,6 +6116,11 @@
       <c r="S80" t="n">
         <v>2.599999999999994</v>
       </c>
+      <c r="T80" s="4" t="n"/>
+      <c r="W80" s="5" t="n"/>
+      <c r="AB80" s="5" t="n"/>
+      <c r="AG80" s="5" t="n"/>
+      <c r="AL80" s="5" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5903,8 +6167,8 @@
       <c r="N81" s="2" t="n">
         <v>195778</v>
       </c>
-      <c r="O81" t="n">
-        <v>3.400000000000006</v>
+      <c r="O81" s="4" t="n">
+        <v>-3.400000000000006</v>
       </c>
       <c r="P81" t="n">
         <v>0.2999999999999972</v>
@@ -5918,6 +6182,11 @@
       <c r="S81" t="n">
         <v>4.200000000000003</v>
       </c>
+      <c r="T81" s="4" t="n"/>
+      <c r="W81" s="5" t="n"/>
+      <c r="AB81" s="5" t="n"/>
+      <c r="AG81" s="5" t="n"/>
+      <c r="AL81" s="5" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5964,8 +6233,8 @@
       <c r="N82" s="2" t="n">
         <v>203979</v>
       </c>
-      <c r="O82" s="4" t="n">
-        <v>-3.150000000000006</v>
+      <c r="O82" t="n">
+        <v>3.150000000000006</v>
       </c>
       <c r="P82" t="n">
         <v>3.700000000000003</v>
@@ -5979,6 +6248,9 @@
       <c r="S82" t="n">
         <v>4.400000000000006</v>
       </c>
+      <c r="Y82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+      <c r="AI82" s="4" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6025,8 +6297,8 @@
       <c r="N83" s="2" t="n">
         <v>289292</v>
       </c>
-      <c r="O83" t="n">
-        <v>2.25</v>
+      <c r="O83" s="4" t="n">
+        <v>-2.25</v>
       </c>
       <c r="P83" t="n">
         <v>2.799999999999997</v>
@@ -6040,6 +6312,11 @@
       <c r="S83" t="n">
         <v>5.849999999999994</v>
       </c>
+      <c r="T83" s="4" t="n"/>
+      <c r="W83" s="5" t="n"/>
+      <c r="AB83" s="5" t="n"/>
+      <c r="AG83" s="5" t="n"/>
+      <c r="AL83" s="5" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6086,8 +6363,8 @@
       <c r="N84" s="2" t="n">
         <v>505091</v>
       </c>
-      <c r="O84" s="4" t="n">
-        <v>-3.700000000000003</v>
+      <c r="O84" t="n">
+        <v>3.700000000000003</v>
       </c>
       <c r="P84" t="n">
         <v>4.300000000000011</v>
@@ -6101,6 +6378,9 @@
       <c r="S84" t="n">
         <v>5.650000000000006</v>
       </c>
+      <c r="Y84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+      <c r="AI84" s="4" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6147,8 +6427,8 @@
       <c r="N85" s="2" t="n">
         <v>399350</v>
       </c>
-      <c r="O85" s="4" t="n">
-        <v>-7.700000000000003</v>
+      <c r="O85" t="n">
+        <v>7.700000000000003</v>
       </c>
       <c r="P85" t="n">
         <v>11.10000000000001</v>
@@ -6162,6 +6442,9 @@
       <c r="S85" t="n">
         <v>11.2</v>
       </c>
+      <c r="Y85" s="4" t="n"/>
+      <c r="AD85" s="4" t="n"/>
+      <c r="AI85" s="4" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6208,8 +6491,8 @@
       <c r="N86" s="2" t="n">
         <v>112689</v>
       </c>
-      <c r="O86" s="4" t="n">
-        <v>-2.549999999999997</v>
+      <c r="O86" t="n">
+        <v>2.549999999999997</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -6223,6 +6506,9 @@
       <c r="S86" t="n">
         <v>3.099999999999994</v>
       </c>
+      <c r="Y86" s="4" t="n"/>
+      <c r="AD86" s="4" t="n"/>
+      <c r="AI86" s="4" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6269,8 +6555,8 @@
       <c r="N87" s="2" t="n">
         <v>108637</v>
       </c>
-      <c r="O87" t="n">
-        <v>1.899999999999991</v>
+      <c r="O87" s="4" t="n">
+        <v>-1.899999999999991</v>
       </c>
       <c r="P87" t="n">
         <v>1.550000000000011</v>
@@ -6284,6 +6570,11 @@
       <c r="S87" t="n">
         <v>3.900000000000006</v>
       </c>
+      <c r="T87" s="4" t="n"/>
+      <c r="W87" s="5" t="n"/>
+      <c r="AB87" s="5" t="n"/>
+      <c r="AG87" s="5" t="n"/>
+      <c r="AL87" s="5" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -6330,8 +6621,8 @@
       <c r="N88" s="2" t="n">
         <v>109571</v>
       </c>
-      <c r="O88" t="n">
-        <v>2.75</v>
+      <c r="O88" s="4" t="n">
+        <v>-2.75</v>
       </c>
       <c r="P88" t="n">
         <v>0.3000000000000114</v>
@@ -6345,6 +6636,11 @@
       <c r="S88" t="n">
         <v>3.900000000000006</v>
       </c>
+      <c r="T88" s="4" t="n"/>
+      <c r="W88" s="5" t="n"/>
+      <c r="AB88" s="5" t="n"/>
+      <c r="AG88" s="5" t="n"/>
+      <c r="AL88" s="5" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6391,8 +6687,8 @@
       <c r="N89" s="2" t="n">
         <v>110651</v>
       </c>
-      <c r="O89" s="4" t="n">
-        <v>-1.5</v>
+      <c r="O89" t="n">
+        <v>1.5</v>
       </c>
       <c r="P89" t="n">
         <v>2.399999999999991</v>
@@ -6406,6 +6702,9 @@
       <c r="S89" t="n">
         <v>2.899999999999991</v>
       </c>
+      <c r="Y89" s="4" t="n"/>
+      <c r="AD89" s="4" t="n"/>
+      <c r="AI89" s="4" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6452,8 +6751,8 @@
       <c r="N90" s="2" t="n">
         <v>141164</v>
       </c>
-      <c r="O90" t="n">
-        <v>1.699999999999989</v>
+      <c r="O90" s="4" t="n">
+        <v>-1.699999999999989</v>
       </c>
       <c r="P90" t="n">
         <v>1.900000000000006</v>
@@ -6467,6 +6766,11 @@
       <c r="S90" t="n">
         <v>4.200000000000003</v>
       </c>
+      <c r="T90" s="4" t="n"/>
+      <c r="W90" s="5" t="n"/>
+      <c r="AB90" s="5" t="n"/>
+      <c r="AG90" s="5" t="n"/>
+      <c r="AL90" s="5" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -6513,8 +6817,8 @@
       <c r="N91" s="2" t="n">
         <v>276322</v>
       </c>
-      <c r="O91" t="n">
-        <v>1.049999999999997</v>
+      <c r="O91" s="4" t="n">
+        <v>-1.049999999999997</v>
       </c>
       <c r="P91" t="n">
         <v>0.5</v>
@@ -6528,6 +6832,11 @@
       <c r="S91" t="n">
         <v>6.75</v>
       </c>
+      <c r="T91" s="4" t="n"/>
+      <c r="W91" s="5" t="n"/>
+      <c r="AB91" s="5" t="n"/>
+      <c r="AG91" s="5" t="n"/>
+      <c r="AL91" s="5" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -6574,8 +6883,8 @@
       <c r="N92" s="2" t="n">
         <v>164172</v>
       </c>
-      <c r="O92" s="4" t="n">
-        <v>-2.599999999999994</v>
+      <c r="O92" t="n">
+        <v>2.599999999999994</v>
       </c>
       <c r="P92" t="n">
         <v>3.849999999999994</v>
@@ -6589,6 +6898,13 @@
       <c r="S92" t="n">
         <v>3.950000000000003</v>
       </c>
+      <c r="W92" s="5" t="n"/>
+      <c r="Y92" s="4" t="n"/>
+      <c r="AB92" s="5" t="n"/>
+      <c r="AD92" s="4" t="n"/>
+      <c r="AG92" s="5" t="n"/>
+      <c r="AI92" s="4" t="n"/>
+      <c r="AL92" s="5" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6635,8 +6951,8 @@
       <c r="N93" s="2" t="n">
         <v>136203</v>
       </c>
-      <c r="O93" t="n">
-        <v>4.899999999999991</v>
+      <c r="O93" s="4" t="n">
+        <v>-4.899999999999991</v>
       </c>
       <c r="P93" t="n">
         <v>0.1000000000000085</v>
@@ -6650,6 +6966,11 @@
       <c r="S93" t="n">
         <v>7.100000000000009</v>
       </c>
+      <c r="T93" s="4" t="n"/>
+      <c r="W93" s="5" t="n"/>
+      <c r="AB93" s="5" t="n"/>
+      <c r="AG93" s="5" t="n"/>
+      <c r="AL93" s="5" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -6696,8 +7017,8 @@
       <c r="N94" s="2" t="n">
         <v>183110</v>
       </c>
-      <c r="O94" t="n">
-        <v>0.6500000000000057</v>
+      <c r="O94" s="4" t="n">
+        <v>-0.6500000000000057</v>
       </c>
       <c r="P94" t="n">
         <v>0.5</v>
@@ -6711,6 +7032,7 @@
       <c r="S94" t="n">
         <v>2.349999999999994</v>
       </c>
+      <c r="T94" s="4" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -6757,8 +7079,8 @@
       <c r="N95" s="2" t="n">
         <v>136297</v>
       </c>
-      <c r="O95" t="n">
-        <v>0.3499999999999943</v>
+      <c r="O95" s="4" t="n">
+        <v>-0.3499999999999943</v>
       </c>
       <c r="P95" t="n">
         <v>1.150000000000006</v>
@@ -6772,6 +7094,11 @@
       <c r="S95" t="n">
         <v>2.5</v>
       </c>
+      <c r="T95" s="4" t="n"/>
+      <c r="W95" s="5" t="n"/>
+      <c r="AB95" s="5" t="n"/>
+      <c r="AG95" s="5" t="n"/>
+      <c r="AL95" s="5" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -6818,8 +7145,8 @@
       <c r="N96" s="2" t="n">
         <v>208357</v>
       </c>
-      <c r="O96" t="n">
-        <v>1.299999999999997</v>
+      <c r="O96" s="4" t="n">
+        <v>-1.299999999999997</v>
       </c>
       <c r="P96" t="n">
         <v>0.5999999999999943</v>
@@ -6833,6 +7160,11 @@
       <c r="S96" t="n">
         <v>5.599999999999994</v>
       </c>
+      <c r="T96" s="4" t="n"/>
+      <c r="W96" s="5" t="n"/>
+      <c r="AB96" s="5" t="n"/>
+      <c r="AG96" s="5" t="n"/>
+      <c r="AL96" s="5" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -6879,8 +7211,8 @@
       <c r="N97" s="2" t="n">
         <v>126051</v>
       </c>
-      <c r="O97" s="4" t="n">
-        <v>-1.349999999999994</v>
+      <c r="O97" t="n">
+        <v>1.349999999999994</v>
       </c>
       <c r="P97" t="n">
         <v>1.700000000000003</v>
@@ -6894,6 +7226,9 @@
       <c r="S97" t="n">
         <v>2.700000000000003</v>
       </c>
+      <c r="Y97" s="4" t="n"/>
+      <c r="AD97" s="4" t="n"/>
+      <c r="AI97" s="4" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -6940,8 +7275,8 @@
       <c r="N98" s="2" t="n">
         <v>130337</v>
       </c>
-      <c r="O98" t="n">
-        <v>0.4000000000000057</v>
+      <c r="O98" s="4" t="n">
+        <v>-0.4000000000000057</v>
       </c>
       <c r="P98" t="n">
         <v>0.8499999999999943</v>
@@ -6955,6 +7290,7 @@
       <c r="S98" t="n">
         <v>1.900000000000006</v>
       </c>
+      <c r="T98" s="4" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7001,8 +7337,8 @@
       <c r="N99" s="2" t="n">
         <v>175996</v>
       </c>
-      <c r="O99" s="4" t="n">
-        <v>-1.150000000000006</v>
+      <c r="O99" t="n">
+        <v>1.150000000000006</v>
       </c>
       <c r="P99" t="n">
         <v>1.950000000000003</v>
@@ -7016,6 +7352,9 @@
       <c r="S99" t="n">
         <v>2.700000000000003</v>
       </c>
+      <c r="Y99" s="4" t="n"/>
+      <c r="AD99" s="4" t="n"/>
+      <c r="AI99" s="4" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7062,8 +7401,8 @@
       <c r="N100" s="2" t="n">
         <v>304193</v>
       </c>
-      <c r="O100" t="n">
-        <v>0.3500000000000085</v>
+      <c r="O100" s="4" t="n">
+        <v>-0.3500000000000085</v>
       </c>
       <c r="P100" t="n">
         <v>3.049999999999997</v>
@@ -7077,6 +7416,7 @@
       <c r="S100" t="n">
         <v>3.75</v>
       </c>
+      <c r="T100" s="4" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7123,8 +7463,8 @@
       <c r="N101" s="2" t="n">
         <v>227474</v>
       </c>
-      <c r="O101" s="4" t="n">
-        <v>-2.200000000000003</v>
+      <c r="O101" t="n">
+        <v>2.200000000000003</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -7138,6 +7478,9 @@
       <c r="S101" t="n">
         <v>3.25</v>
       </c>
+      <c r="Y101" s="4" t="n"/>
+      <c r="AD101" s="4" t="n"/>
+      <c r="AI101" s="4" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -7184,8 +7527,8 @@
       <c r="N102" s="2" t="n">
         <v>169601</v>
       </c>
-      <c r="O102" s="4" t="n">
-        <v>-1.149999999999991</v>
+      <c r="O102" t="n">
+        <v>1.149999999999991</v>
       </c>
       <c r="P102" t="n">
         <v>3.049999999999997</v>
@@ -7199,6 +7542,9 @@
       <c r="S102" t="n">
         <v>3.299999999999997</v>
       </c>
+      <c r="Y102" s="4" t="n"/>
+      <c r="AD102" s="4" t="n"/>
+      <c r="AI102" s="4" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -7245,8 +7591,8 @@
       <c r="N103" s="2" t="n">
         <v>152774</v>
       </c>
-      <c r="O103" s="4" t="n">
-        <v>-0.1000000000000085</v>
+      <c r="O103" t="n">
+        <v>0.1000000000000085</v>
       </c>
       <c r="P103" t="n">
         <v>1.450000000000003</v>
@@ -7260,6 +7606,13 @@
       <c r="S103" t="n">
         <v>4.25</v>
       </c>
+      <c r="W103" s="5" t="n"/>
+      <c r="Y103" s="4" t="n"/>
+      <c r="AB103" s="5" t="n"/>
+      <c r="AD103" s="4" t="n"/>
+      <c r="AG103" s="5" t="n"/>
+      <c r="AI103" s="4" t="n"/>
+      <c r="AL103" s="5" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -7306,8 +7659,8 @@
       <c r="N104" s="2" t="n">
         <v>150559</v>
       </c>
-      <c r="O104" t="n">
-        <v>1.950000000000003</v>
+      <c r="O104" s="4" t="n">
+        <v>-1.950000000000003</v>
       </c>
       <c r="P104" t="n">
         <v>0.7999999999999972</v>
@@ -7321,6 +7674,11 @@
       <c r="S104" t="n">
         <v>3.200000000000003</v>
       </c>
+      <c r="T104" s="4" t="n"/>
+      <c r="W104" s="5" t="n"/>
+      <c r="AB104" s="5" t="n"/>
+      <c r="AG104" s="5" t="n"/>
+      <c r="AL104" s="5" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -7367,8 +7725,8 @@
       <c r="N105" s="2" t="n">
         <v>294089</v>
       </c>
-      <c r="O105" s="4" t="n">
-        <v>-2.800000000000011</v>
+      <c r="O105" t="n">
+        <v>2.800000000000011</v>
       </c>
       <c r="P105" t="n">
         <v>5.100000000000009</v>
@@ -7382,6 +7740,9 @@
       <c r="S105" t="n">
         <v>5.350000000000009</v>
       </c>
+      <c r="Y105" s="4" t="n"/>
+      <c r="AD105" s="4" t="n"/>
+      <c r="AI105" s="4" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -7428,8 +7789,8 @@
       <c r="N106" s="2" t="n">
         <v>196898</v>
       </c>
-      <c r="O106" t="n">
-        <v>3.650000000000006</v>
+      <c r="O106" s="4" t="n">
+        <v>-3.650000000000006</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -7443,6 +7804,11 @@
       <c r="S106" t="n">
         <v>4.050000000000011</v>
       </c>
+      <c r="T106" s="4" t="n"/>
+      <c r="W106" s="5" t="n"/>
+      <c r="AB106" s="5" t="n"/>
+      <c r="AG106" s="5" t="n"/>
+      <c r="AL106" s="5" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -7489,8 +7855,8 @@
       <c r="N107" s="2" t="n">
         <v>168882</v>
       </c>
-      <c r="O107" s="4" t="n">
-        <v>-4.299999999999997</v>
+      <c r="O107" t="n">
+        <v>4.299999999999997</v>
       </c>
       <c r="P107" t="n">
         <v>4.900000000000006</v>
@@ -7504,6 +7870,9 @@
       <c r="S107" t="n">
         <v>5.900000000000006</v>
       </c>
+      <c r="Y107" s="4" t="n"/>
+      <c r="AD107" s="4" t="n"/>
+      <c r="AI107" s="4" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -7550,8 +7919,8 @@
       <c r="N108" s="2" t="n">
         <v>112785</v>
       </c>
-      <c r="O108" s="4" t="n">
-        <v>-1.450000000000003</v>
+      <c r="O108" t="n">
+        <v>1.450000000000003</v>
       </c>
       <c r="P108" t="n">
         <v>2.700000000000003</v>
@@ -7565,6 +7934,9 @@
       <c r="S108" t="n">
         <v>3.150000000000006</v>
       </c>
+      <c r="Y108" s="4" t="n"/>
+      <c r="AD108" s="4" t="n"/>
+      <c r="AI108" s="4" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -7611,8 +7983,8 @@
       <c r="N109" s="2" t="n">
         <v>72762</v>
       </c>
-      <c r="O109" t="n">
-        <v>0.3999999999999915</v>
+      <c r="O109" s="4" t="n">
+        <v>-0.3999999999999915</v>
       </c>
       <c r="P109" t="n">
         <v>0.25</v>
@@ -7626,6 +7998,11 @@
       <c r="S109" t="n">
         <v>1.299999999999997</v>
       </c>
+      <c r="T109" s="4" t="n"/>
+      <c r="W109" s="5" t="n"/>
+      <c r="AB109" s="5" t="n"/>
+      <c r="AG109" s="5" t="n"/>
+      <c r="AL109" s="5" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -7672,8 +8049,8 @@
       <c r="N110" s="2" t="n">
         <v>77986</v>
       </c>
-      <c r="O110" s="4" t="n">
-        <v>-0.1999999999999886</v>
+      <c r="O110" t="n">
+        <v>0.1999999999999886</v>
       </c>
       <c r="P110" t="n">
         <v>1.299999999999997</v>
@@ -7687,6 +8064,9 @@
       <c r="S110" t="n">
         <v>2.700000000000003</v>
       </c>
+      <c r="Y110" s="4" t="n"/>
+      <c r="AD110" s="4" t="n"/>
+      <c r="AI110" s="4" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -7733,8 +8113,8 @@
       <c r="N111" s="2" t="n">
         <v>81138</v>
       </c>
-      <c r="O111" s="4" t="n">
-        <v>-1.300000000000011</v>
+      <c r="O111" t="n">
+        <v>1.300000000000011</v>
       </c>
       <c r="P111" t="n">
         <v>1.800000000000011</v>
@@ -7748,6 +8128,9 @@
       <c r="S111" t="n">
         <v>2.5</v>
       </c>
+      <c r="Y111" s="4" t="n"/>
+      <c r="AD111" s="4" t="n"/>
+      <c r="AI111" s="4" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -7794,8 +8177,8 @@
       <c r="N112" s="2" t="n">
         <v>83641</v>
       </c>
-      <c r="O112" t="n">
-        <v>1.849999999999994</v>
+      <c r="O112" s="4" t="n">
+        <v>-1.849999999999994</v>
       </c>
       <c r="P112" t="n">
         <v>0.2000000000000028</v>
@@ -7809,6 +8192,11 @@
       <c r="S112" t="n">
         <v>2.75</v>
       </c>
+      <c r="T112" s="4" t="n"/>
+      <c r="W112" s="5" t="n"/>
+      <c r="AB112" s="5" t="n"/>
+      <c r="AG112" s="5" t="n"/>
+      <c r="AL112" s="5" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -7855,8 +8243,8 @@
       <c r="N113" s="2" t="n">
         <v>89218</v>
       </c>
-      <c r="O113" s="4" t="n">
-        <v>-0.4000000000000057</v>
+      <c r="O113" t="n">
+        <v>0.4000000000000057</v>
       </c>
       <c r="P113" t="n">
         <v>1.900000000000006</v>
@@ -7870,6 +8258,9 @@
       <c r="S113" t="n">
         <v>2.700000000000003</v>
       </c>
+      <c r="Y113" s="4" t="n"/>
+      <c r="AD113" s="4" t="n"/>
+      <c r="AI113" s="4" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -7916,8 +8307,8 @@
       <c r="N114" s="2" t="n">
         <v>111529</v>
       </c>
-      <c r="O114" t="n">
-        <v>0.8499999999999943</v>
+      <c r="O114" s="4" t="n">
+        <v>-0.8499999999999943</v>
       </c>
       <c r="P114" t="n">
         <v>0.9500000000000028</v>
@@ -7931,6 +8322,11 @@
       <c r="S114" t="n">
         <v>2.700000000000003</v>
       </c>
+      <c r="T114" s="4" t="n"/>
+      <c r="W114" s="5" t="n"/>
+      <c r="AB114" s="5" t="n"/>
+      <c r="AG114" s="5" t="n"/>
+      <c r="AL114" s="5" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -7977,8 +8373,8 @@
       <c r="N115" s="2" t="n">
         <v>168842</v>
       </c>
-      <c r="O115" t="n">
-        <v>1.299999999999997</v>
+      <c r="O115" s="4" t="n">
+        <v>-1.299999999999997</v>
       </c>
       <c r="P115" t="n">
         <v>3.600000000000009</v>
@@ -7992,6 +8388,11 @@
       <c r="S115" t="n">
         <v>5.600000000000009</v>
       </c>
+      <c r="T115" s="4" t="n"/>
+      <c r="W115" s="5" t="n"/>
+      <c r="AB115" s="5" t="n"/>
+      <c r="AG115" s="5" t="n"/>
+      <c r="AL115" s="5" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -8038,8 +8439,8 @@
       <c r="N116" s="2" t="n">
         <v>136780</v>
       </c>
-      <c r="O116" t="n">
-        <v>1.449999999999989</v>
+      <c r="O116" s="4" t="n">
+        <v>-1.449999999999989</v>
       </c>
       <c r="P116" t="n">
         <v>1.400000000000006</v>
@@ -8053,6 +8454,11 @@
       <c r="S116" t="n">
         <v>3.349999999999994</v>
       </c>
+      <c r="T116" s="4" t="n"/>
+      <c r="W116" s="5" t="n"/>
+      <c r="AB116" s="5" t="n"/>
+      <c r="AG116" s="5" t="n"/>
+      <c r="AL116" s="5" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -8099,8 +8505,8 @@
       <c r="N117" s="2" t="n">
         <v>240398</v>
       </c>
-      <c r="O117" s="4" t="n">
-        <v>-2.450000000000003</v>
+      <c r="O117" t="n">
+        <v>2.450000000000003</v>
       </c>
       <c r="P117" t="n">
         <v>3.950000000000003</v>
@@ -8114,6 +8520,9 @@
       <c r="S117" t="n">
         <v>4.100000000000009</v>
       </c>
+      <c r="Y117" s="4" t="n"/>
+      <c r="AD117" s="4" t="n"/>
+      <c r="AI117" s="4" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -8160,8 +8569,8 @@
       <c r="N118" s="2" t="n">
         <v>92080</v>
       </c>
-      <c r="O118" s="4" t="n">
-        <v>-0.7999999999999972</v>
+      <c r="O118" t="n">
+        <v>0.7999999999999972</v>
       </c>
       <c r="P118" t="n">
         <v>1.449999999999989</v>
@@ -8175,6 +8584,9 @@
       <c r="S118" t="n">
         <v>1.899999999999991</v>
       </c>
+      <c r="Y118" s="4" t="n"/>
+      <c r="AD118" s="4" t="n"/>
+      <c r="AI118" s="4" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -8221,8 +8633,8 @@
       <c r="N119" s="2" t="n">
         <v>125359</v>
       </c>
-      <c r="O119" t="n">
-        <v>0.8499999999999943</v>
+      <c r="O119" s="4" t="n">
+        <v>-0.8499999999999943</v>
       </c>
       <c r="P119" t="n">
         <v>2</v>
@@ -8236,6 +8648,11 @@
       <c r="S119" t="n">
         <v>3.75</v>
       </c>
+      <c r="T119" s="4" t="n"/>
+      <c r="W119" s="5" t="n"/>
+      <c r="AB119" s="5" t="n"/>
+      <c r="AG119" s="5" t="n"/>
+      <c r="AL119" s="5" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -8282,8 +8699,8 @@
       <c r="N120" s="2" t="n">
         <v>196958</v>
       </c>
-      <c r="O120" t="n">
-        <v>3.650000000000006</v>
+      <c r="O120" s="4" t="n">
+        <v>-3.650000000000006</v>
       </c>
       <c r="P120" t="n">
         <v>0.09999999999999432</v>
@@ -8297,6 +8714,11 @@
       <c r="S120" t="n">
         <v>6</v>
       </c>
+      <c r="T120" s="4" t="n"/>
+      <c r="W120" s="5" t="n"/>
+      <c r="AB120" s="5" t="n"/>
+      <c r="AG120" s="5" t="n"/>
+      <c r="AL120" s="5" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -8343,8 +8765,8 @@
       <c r="N121" s="2" t="n">
         <v>162921</v>
       </c>
-      <c r="O121" s="4" t="n">
-        <v>-1.349999999999994</v>
+      <c r="O121" t="n">
+        <v>1.349999999999994</v>
       </c>
       <c r="P121" t="n">
         <v>2.549999999999997</v>
@@ -8358,6 +8780,9 @@
       <c r="S121" t="n">
         <v>3.349999999999994</v>
       </c>
+      <c r="Y121" s="4" t="n"/>
+      <c r="AD121" s="4" t="n"/>
+      <c r="AI121" s="4" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -8404,8 +8829,8 @@
       <c r="N122" s="2" t="n">
         <v>130168</v>
       </c>
-      <c r="O122" t="n">
-        <v>1.150000000000006</v>
+      <c r="O122" s="4" t="n">
+        <v>-1.150000000000006</v>
       </c>
       <c r="P122" t="n">
         <v>0.3499999999999943</v>
@@ -8419,6 +8844,11 @@
       <c r="S122" t="n">
         <v>2.099999999999994</v>
       </c>
+      <c r="T122" s="4" t="n"/>
+      <c r="W122" s="5" t="n"/>
+      <c r="AB122" s="5" t="n"/>
+      <c r="AG122" s="5" t="n"/>
+      <c r="AL122" s="5" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -8465,8 +8895,8 @@
       <c r="N123" s="2" t="n">
         <v>227593</v>
       </c>
-      <c r="O123" s="4" t="n">
-        <v>-1.399999999999991</v>
+      <c r="O123" t="n">
+        <v>1.399999999999991</v>
       </c>
       <c r="P123" t="n">
         <v>2.949999999999989</v>
@@ -8480,6 +8910,9 @@
       <c r="S123" t="n">
         <v>3.399999999999991</v>
       </c>
+      <c r="Y123" s="4" t="n"/>
+      <c r="AD123" s="4" t="n"/>
+      <c r="AI123" s="4" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -8526,8 +8959,8 @@
       <c r="N124" s="2" t="n">
         <v>92660</v>
       </c>
-      <c r="O124" t="n">
-        <v>0.2000000000000028</v>
+      <c r="O124" s="4" t="n">
+        <v>-0.2000000000000028</v>
       </c>
       <c r="P124" t="n">
         <v>0.4499999999999886</v>
@@ -8541,6 +8974,7 @@
       <c r="S124" t="n">
         <v>1.199999999999989</v>
       </c>
+      <c r="T124" s="4" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -8587,8 +9021,8 @@
       <c r="N125" s="2" t="n">
         <v>102063</v>
       </c>
-      <c r="O125" s="4" t="n">
-        <v>-0.04999999999999716</v>
+      <c r="O125" t="n">
+        <v>0.04999999999999716</v>
       </c>
       <c r="P125" t="n">
         <v>1.149999999999991</v>
@@ -8602,6 +9036,9 @@
       <c r="S125" t="n">
         <v>2.25</v>
       </c>
+      <c r="Y125" s="4" t="n"/>
+      <c r="AD125" s="4" t="n"/>
+      <c r="AI125" s="4" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -8648,8 +9085,8 @@
       <c r="N126" s="2" t="n">
         <v>100072</v>
       </c>
-      <c r="O126" s="4" t="n">
-        <v>-0.5499999999999972</v>
+      <c r="O126" t="n">
+        <v>0.5499999999999972</v>
       </c>
       <c r="P126" t="n">
         <v>1.099999999999994</v>
@@ -8663,6 +9100,9 @@
       <c r="S126" t="n">
         <v>1.299999999999997</v>
       </c>
+      <c r="Y126" s="4" t="n"/>
+      <c r="AD126" s="4" t="n"/>
+      <c r="AI126" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
